--- a/data/income_statement/3digits/total/132_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/132_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>132-Weaving of textiles</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>132-Weaving of textiles</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>9195257.12899</v>
@@ -965,28 +871,33 @@
         <v>17258225.09789</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>19613608.99834</v>
+        <v>19707134.99578</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>20270740.3319</v>
+        <v>22343757.72777</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>24607618.37674</v>
+        <v>24608306.42203</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>30543651.08744</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>40712697.07284</v>
+        <v>40724531.20969</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>46462446.29978999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>46860759.59965</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>47654217.242</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>6941604.71673</v>
@@ -1004,28 +915,33 @@
         <v>12968276.02335</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>15096043.87241</v>
+        <v>15161999.71199</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>16060571.28172</v>
+        <v>17304427.05351</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>18951212.82098</v>
+        <v>18951894.03335</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>23225972.99261</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>31175973.13321</v>
+        <v>31187648.78831</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>35979465.01749001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>36367588.5332</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>36856272.449</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>2119162.01247</v>
@@ -1043,28 +959,33 @@
         <v>4105361.90982</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>4289748.54346</v>
+        <v>4315624.155219999</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>3910503.695970001</v>
+        <v>4711293.94042</v>
       </c>
       <c r="J7" s="48" t="n">
         <v>5264213.499190001</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>6751599.495730001</v>
+        <v>6751599.49573</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>8473053.343010001</v>
+        <v>8473097.094559999</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>9695394.088959999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>9705251.1569</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>9728744.767000001</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>134490.39979</v>
@@ -1082,28 +1003,33 @@
         <v>184587.16472</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>227816.58247</v>
+        <v>229511.12857</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>299665.35421</v>
+        <v>328036.73384</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>392192.0565700001</v>
+        <v>392198.8894900001</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>566078.5991</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>1063670.59662</v>
+        <v>1063785.32682</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>787587.19334</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>787919.90955</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>1069200.026</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>331398.70001</v>
@@ -1121,10 +1047,10 @@
         <v>352454.26457</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>486686.13416</v>
+        <v>489909.08999</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>469471.47447</v>
+        <v>506396.44026</v>
       </c>
       <c r="J9" s="47" t="n">
         <v>562414.22062</v>
@@ -1133,16 +1059,21 @@
         <v>709351.4386099998</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>1124962.49848</v>
+        <v>1125289.94955</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>1049022.20789</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>1055667.88008</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>1133457.85</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>161093.13166</v>
@@ -1160,28 +1091,33 @@
         <v>269255.56277</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>339897.50687</v>
+        <v>342419.61229</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>347745.5596699999</v>
+        <v>361526.87063</v>
       </c>
       <c r="J10" s="48" t="n">
         <v>423407.2282899999</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>522454.97917</v>
+        <v>522454.9791699999</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>730546.62477</v>
+        <v>730825.0766800001</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>717162.6309099999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>721889.65371</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>804726.2439999999</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>119367.104</v>
@@ -1199,10 +1135,10 @@
         <v>28565.18092</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>36063.7799</v>
+        <v>36764.63031</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>35397.57965</v>
+        <v>40015.45629</v>
       </c>
       <c r="J11" s="48" t="n">
         <v>49608.94628</v>
@@ -1211,22 +1147,27 @@
         <v>62692.69959</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>100903.5673</v>
+        <v>100914.3619</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>112193.52729</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>112194.02525</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>95653.784</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>50938.46435</v>
+        <v>50938.46434999999</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>57994.23193000001</v>
+        <v>57994.23193</v>
       </c>
       <c r="E12" s="48" t="n">
         <v>55377.73860000001</v>
@@ -1241,7 +1182,7 @@
         <v>110724.84739</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>86328.33515</v>
+        <v>104854.11334</v>
       </c>
       <c r="J12" s="48" t="n">
         <v>89398.04604999999</v>
@@ -1250,16 +1191,21 @@
         <v>124203.75985</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>293512.30641</v>
+        <v>293550.5109699999</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>219666.04969</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>221584.20112</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>233077.822</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>8863858.42898</v>
@@ -1277,34 +1223,39 @@
         <v>16905770.83332</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>19126922.86418</v>
+        <v>19217225.90579</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>19801268.85743</v>
+        <v>21837361.28751</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>24045204.15612</v>
+        <v>24045892.20141</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>29834299.64883</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>39587734.57436</v>
+        <v>39599241.26014</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>45413424.0919</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>45805091.71957</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>46520759.392</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>7442357.00881</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>8901426.174380001</v>
+        <v>8901426.174379999</v>
       </c>
       <c r="E14" s="47" t="n">
         <v>11525248.45839</v>
@@ -1316,34 +1267,39 @@
         <v>14043749.19294</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>15862984.15003</v>
+        <v>15941518.58281</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>16405244.64141</v>
+        <v>17822155.95963</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>19886646.09639</v>
+        <v>19887288.06234</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>24319714.22324</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>31365985.50172</v>
+        <v>31378256.62331</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>37646208.79222</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>37989426.8919</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>36774311.359</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>6191320.986780001</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>7403235.922699999</v>
+        <v>7403235.922700001</v>
       </c>
       <c r="E15" s="48" t="n">
         <v>9580911.55483</v>
@@ -1355,31 +1311,36 @@
         <v>11832667.82319</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>13493778.82783</v>
+        <v>13564269.03003</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>13753161.73121</v>
+        <v>15080707.92453</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>16721207.33909</v>
+        <v>16721251.28939</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>20603518.35437</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>26972943.32521</v>
+        <v>26984042.67923</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>32422676.61342</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>32728907.76017</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>31588689.832</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>936562.4035900001</v>
+        <v>936562.4035899999</v>
       </c>
       <c r="D16" s="48" t="n">
         <v>1120220.19042</v>
@@ -1394,28 +1355,33 @@
         <v>1584840.21719</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>1686210.32213</v>
+        <v>1690149.65284</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>1956381.3138</v>
+        <v>2000095.32802</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>2362620.28025</v>
+        <v>2362982.29203</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>2759658.05588</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>3172735.82668</v>
+        <v>3173718.32643</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>3836736.25401</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>3861703.14872</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>3866522.035</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>274133.04828</v>
@@ -1427,34 +1393,39 @@
         <v>387788.89344</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>476930.2782599999</v>
+        <v>476930.27826</v>
       </c>
       <c r="G17" s="48" t="n">
         <v>543678.85384</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>599958.4414499999</v>
+        <v>604063.3413199999</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>620969.716</v>
+        <v>652179.5434600001</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>690731.84737</v>
+        <v>690955.2278999999</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>789881.8155999999</v>
+        <v>789881.8156</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>1020035.61399</v>
+        <v>1020224.88181</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>1160621.68148</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1169358.71429</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>1095059.69</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>40340.57016</v>
@@ -1475,10 +1446,10 @@
         <v>83036.55862000001</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>74731.88040000001</v>
+        <v>89173.16362000001</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>112086.62968</v>
+        <v>112099.25302</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>166655.99739</v>
@@ -1487,13 +1458,18 @@
         <v>200270.73584</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>226174.24331</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>229457.26872</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>224039.802</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>1421501.42017</v>
@@ -1511,34 +1487,39 @@
         <v>2862021.64038</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>3263938.71415</v>
+        <v>3275707.32298</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>3396024.21602</v>
+        <v>4015205.32788</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>4158558.05973</v>
+        <v>4158604.13907</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>5514585.42559</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>8221749.072639999</v>
+        <v>8220984.63683</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>7767215.29968</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>7815664.82767</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>9746448.033</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>837203.19919</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>888798.1710699999</v>
+        <v>888798.17107</v>
       </c>
       <c r="E20" s="47" t="n">
         <v>1106053.59623</v>
@@ -1547,31 +1528,36 @@
         <v>1237961.01149</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>1417627.05084</v>
+        <v>1417771.71684</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>1608438.97895</v>
+        <v>1616148.14158</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>1515916.88276</v>
+        <v>1827331.48168</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>2040659.54051</v>
+        <v>2040942.99872</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>2329173.23177</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>2781386.45375</v>
+        <v>2784887.45868</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>3327403.87074</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>3350181.67025</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>3289588.562</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>23300.69278</v>
@@ -1592,7 +1578,7 @@
         <v>24077.59939</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>29022.96009</v>
+        <v>35899.71271</v>
       </c>
       <c r="J21" s="48" t="n">
         <v>45847.10223</v>
@@ -1604,13 +1590,18 @@
         <v>60536.65201000001</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>80987.24579999998</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>80919.31751999998</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>84578.894</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>328529.9015</v>
@@ -1619,37 +1610,42 @@
         <v>348319.66873</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>446456.9776700001</v>
+        <v>446456.97767</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>515178.41076</v>
+        <v>515178.4107600001</v>
       </c>
       <c r="G22" s="48" t="n">
         <v>580406.02582</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>671251.06567</v>
+        <v>673999.72367</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>609936.33871</v>
+        <v>753281.7912100001</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>813254.4841100001</v>
+        <v>813254.48411</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>962874.63313</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>1239994.3505</v>
+        <v>1240301.17018</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>1492764.59934</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1495680.68146</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>1407820.837</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>485372.60491</v>
@@ -1664,70 +1660,80 @@
         <v>701466.76752</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>808012.3013099999</v>
+        <v>808156.96731</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>913110.31389</v>
+        <v>918070.81852</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>876957.5839600001</v>
+        <v>1038149.97776</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>1181557.95417</v>
+        <v>1181841.41238</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>1317665.5441</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>1480855.45124</v>
+        <v>1484049.63649</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>1753652.0256</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1773581.67127</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>1797188.831</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>584298.22098</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>618966.01167</v>
+        <v>618966.0116699999</v>
       </c>
       <c r="E24" s="47" t="n">
         <v>1281001.86603</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>934409.4467199999</v>
+        <v>934409.44672</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>1444394.58954</v>
+        <v>1444249.92354</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>1655499.7352</v>
+        <v>1659559.1814</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>1880107.33326</v>
+        <v>2187873.8462</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>2117898.51922</v>
+        <v>2117661.14035</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>3185412.19382</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>5440362.61889</v>
+        <v>5436097.178150001</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>4439811.428940001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>4465483.15742</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>6456859.471</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>667108.7283899999</v>
@@ -1742,31 +1748,36 @@
         <v>1104377.42989</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>1351052.52882</v>
+        <v>1351489.81302</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>1590037.05434</v>
+        <v>1592328.29136</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>1948527.85808</v>
+        <v>2336486.41961</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>2250601.44138</v>
+        <v>2250630.30485</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>2975844.54703</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>9787925.490329999</v>
+        <v>9791434.375159999</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>6150474.52292</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>6188978.95701</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>8449962.693</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>38454.50951</v>
@@ -1781,13 +1792,13 @@
         <v>23349.58012</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>85577.85364999999</v>
+        <v>85577.85365</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>55193.04535</v>
+        <v>55193.04534999999</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>58158.62813</v>
+        <v>81285.02931</v>
       </c>
       <c r="J26" s="48" t="n">
         <v>65088.95757999999</v>
@@ -1799,13 +1810,18 @@
         <v>142050.72257</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>53160.86633</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>68705.74456000001</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>102816.458</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>27056.13868</v>
@@ -1817,7 +1833,7 @@
         <v>1370.051</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>46639.81877000001</v>
+        <v>46639.81877</v>
       </c>
       <c r="G27" s="48" t="n">
         <v>20210.30386</v>
@@ -1826,13 +1842,13 @@
         <v>14181.66553</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>21962.05515</v>
+        <v>24147.03835</v>
       </c>
       <c r="J27" s="48" t="n">
         <v>13819.6707</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>9958.17481</v>
+        <v>9958.174809999999</v>
       </c>
       <c r="L27" s="48" t="n">
         <v>19660.57018</v>
@@ -1840,17 +1856,22 @@
       <c r="M27" s="48" t="n">
         <v>30197.02492</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>17315.988</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>45548.36035</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>47409.1002</v>
+        <v>47409.10019999999</v>
       </c>
       <c r="E28" s="48" t="n">
         <v>62062.90396</v>
@@ -1859,13 +1880,13 @@
         <v>95207.49893</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>87947.15701000001</v>
+        <v>88033.57036</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>122087.10817</v>
+        <v>122373.38372</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>76979.40988999998</v>
+        <v>144927.47646</v>
       </c>
       <c r="J28" s="48" t="n">
         <v>136502.18431</v>
@@ -1874,16 +1895,21 @@
         <v>222147.89325</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>377725.5185599999</v>
+        <v>377954.04309</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>418669.41691</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>428516.3250599999</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>547763.286</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>1288.36716</v>
@@ -1895,7 +1921,7 @@
         <v>1257.32769</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>767.4490500000001</v>
+        <v>767.4490499999999</v>
       </c>
       <c r="G29" s="48" t="n">
         <v>1087.7145</v>
@@ -1907,7 +1933,7 @@
         <v>1708.32157</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>4891.00069</v>
+        <v>4891.000690000001</v>
       </c>
       <c r="K29" s="48" t="n">
         <v>9981.182989999999</v>
@@ -1918,14 +1944,19 @@
       <c r="M29" s="48" t="n">
         <v>9316.08167</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>4470.494</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>6287.048890000001</v>
+        <v>6287.04889</v>
       </c>
       <c r="D30" s="48" t="n">
         <v>11426.70139</v>
@@ -1943,7 +1974,7 @@
         <v>23322.18696</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>19211.85296</v>
+        <v>19361.53902</v>
       </c>
       <c r="J30" s="48" t="n">
         <v>15062.30314</v>
@@ -1952,19 +1983,24 @@
         <v>16439.77603</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>37575.52198000001</v>
+        <v>37637.97946000001</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>24004.98505</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>24017.48505</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>25441.9</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>42867.18099</v>
+        <v>42867.18099000001</v>
       </c>
       <c r="D31" s="48" t="n">
         <v>37224.19471</v>
@@ -1976,70 +2012,80 @@
         <v>172996.49937</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>60097.18781</v>
+        <v>60097.18780999999</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>33114.42368</v>
+        <v>33119.57922</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>16169.17786</v>
+        <v>18592.22102</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>64456.85232</v>
+        <v>64456.85231999999</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>15637.60677</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>82433.97533999999</v>
+        <v>82442.63561</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>476406.56423</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>476407.21273</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>144176.202</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>413632.34451</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>356310.3548699999</v>
+        <v>356310.35487</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>662563.3973200001</v>
+        <v>662563.39732</v>
       </c>
       <c r="F32" s="48" t="n">
         <v>582125.155</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>815794.6708</v>
+        <v>815799.0336500001</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>1022040.49592</v>
+        <v>1024029.80925</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>1519192.36172</v>
+        <v>1801913.37158</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>1656417.25844</v>
+        <v>1656445.43191</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>2305507.70553</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>8628147.77829</v>
+        <v>8629259.417100001</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>4691287.34054</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>4701906.229110001</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>7149964.806</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>5217.97228</v>
@@ -2054,19 +2100,19 @@
         <v>11444.65873</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>51107.41397</v>
+        <v>51107.41397000001</v>
       </c>
       <c r="H33" s="48" t="n">
         <v>75974.83194</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>59407.39624</v>
+        <v>63653.12619</v>
       </c>
       <c r="J33" s="48" t="n">
         <v>62944.46525</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>76023.63676000001</v>
+        <v>76023.63675999999</v>
       </c>
       <c r="L33" s="48" t="n">
         <v>126049.16913</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>164251.71533</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>115424.076</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>111.00278</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>2.04</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>86645.80324000001</v>
@@ -2132,73 +2188,83 @@
         <v>124773.0364</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>164248.06248</v>
+        <v>164594.57048</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>242278.11955</v>
+        <v>242288.61215</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>171397.52606</v>
+        <v>176557.16761</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>231356.93731</v>
+        <v>231357.62731</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>263373.03476</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>357705.23101</v>
+        <v>359802.83475</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>283178.48794</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>285659.09858</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>342587.513</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>491271.52089</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>439085.1102699999</v>
+        <v>439085.11027</v>
       </c>
       <c r="E36" s="47" t="n">
         <v>756187.5682699999</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>743333.8529900002</v>
+        <v>743333.85299</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>888293.78571</v>
+        <v>888295.6557100001</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>975148.1653299999</v>
+        <v>977002.96462</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>1584548.31264</v>
+        <v>1715116.70473</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>1529415.06686</v>
+        <v>1529430.53675</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>2385522.36853</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>7167986.735090001</v>
+        <v>7168657.6963</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>3913672.63324</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>3938931.19363</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>6499914.807</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>5852.54767</v>
+        <v>5852.547670000001</v>
       </c>
       <c r="D37" s="48" t="n">
         <v>10149.44986</v>
@@ -2213,16 +2279,16 @@
         <v>6558.929349999999</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>6697.57731</v>
+        <v>6697.577310000001</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>8636.761289999999</v>
+        <v>8640.566550000001</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>8643.01247</v>
+        <v>8643.012470000001</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>9843.877809999998</v>
+        <v>9843.87781</v>
       </c>
       <c r="L37" s="48" t="n">
         <v>14597.24063</v>
@@ -2230,11 +2296,16 @@
       <c r="M37" s="48" t="n">
         <v>16158.7286</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>15582.67</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>60149.667</v>
@@ -2246,7 +2317,7 @@
         <v>44244.22433</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>49080.70923000001</v>
+        <v>49080.70922999999</v>
       </c>
       <c r="G38" s="48" t="n">
         <v>51799.32161</v>
@@ -2255,7 +2326,7 @@
         <v>44439.19903</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>74279.26349000001</v>
+        <v>75763.95888000001</v>
       </c>
       <c r="J38" s="48" t="n">
         <v>117351.70569</v>
@@ -2267,19 +2338,24 @@
         <v>232237.95261</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>176383.39453</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>188901.61826</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>223712.404</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>29840.26593</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>39177.85376</v>
+        <v>39177.85376000001</v>
       </c>
       <c r="E39" s="48" t="n">
         <v>23382.31171</v>
@@ -2303,16 +2379,21 @@
         <v>1547.66295</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>101457.78265</v>
+        <v>101457.79909</v>
       </c>
       <c r="M39" s="48" t="n">
         <v>89322.93579999999</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>31802.664</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>337723.18118</v>
@@ -2321,37 +2402,42 @@
         <v>297356.04766</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>620092.71892</v>
+        <v>620092.7189200001</v>
       </c>
       <c r="F40" s="48" t="n">
         <v>373159.002</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>718327.2963699999</v>
+        <v>718329.16637</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>796169.9281499998</v>
+        <v>797338.10363</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>1373483.55725</v>
+        <v>1496781.44006</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>1266722.40045</v>
+        <v>1266737.87034</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>2040257.77305</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>6539260.423310001</v>
+        <v>6539915.276059999</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>3425454.1749</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>3438185.0039</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>6043214.634</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>4794.67291</v>
@@ -2372,13 +2458,13 @@
         <v>74122.96605</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>63261.14245</v>
+        <v>68727.74945</v>
       </c>
       <c r="J41" s="48" t="n">
         <v>66016.51534</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>81346.41723000001</v>
+        <v>81346.41722999999</v>
       </c>
       <c r="L41" s="48" t="n">
         <v>181854.63985</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>135013.40132</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>119770.514</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>47.84794</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0.012</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>52863.33826</v>
@@ -2441,16 +2537,16 @@
         <v>45815.5217</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>41019.66699</v>
+        <v>41019.66699000001</v>
       </c>
       <c r="G43" s="48" t="n">
         <v>40200.8095</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>52115.78542</v>
+        <v>52802.40923</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>55117.15328000001</v>
+        <v>55432.55491</v>
       </c>
       <c r="J43" s="48" t="n">
         <v>67708.47811999999</v>
@@ -2459,16 +2555,21 @@
         <v>100433.97549</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>98578.69604</v>
+        <v>98594.78805999999</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>71339.99809000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>71349.50575</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>65831.909</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>319911.85863</v>
@@ -2486,28 +2587,33 @@
         <v>920488.7517799999</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>826818.6771</v>
+        <v>828343.80774</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>1110477.05705</v>
+        <v>1541418.22237</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>1732854.8457</v>
+        <v>1732866.83961</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>2325071.37139</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>5953033.85442</v>
+        <v>5953196.91573</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>4347016.7713</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>4407397.522489999</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>5502602.302</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>215144.16573</v>
@@ -2516,37 +2622,42 @@
         <v>175075.08616</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>367685.15966</v>
+        <v>367685.1596599999</v>
       </c>
       <c r="F45" s="48" t="n">
         <v>278961.14244</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>472378.90086</v>
+        <v>472378.9008599999</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>523187.1489</v>
+        <v>524712.27954</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>721031.0029699999</v>
+        <v>753112.8276600001</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>1017895.02673</v>
+        <v>1017907.02064</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>1486523.79179</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>3852761.22614</v>
+        <v>3852924.28745</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>3435295.59629</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>3495676.34748</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>3811370.326</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>104767.6929</v>
@@ -2561,13 +2672,13 @@
         <v>159612.59329</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>448109.8509200001</v>
+        <v>448109.8509199999</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>303631.5281999999</v>
+        <v>303631.5282000001</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>389446.05408</v>
+        <v>788305.39471</v>
       </c>
       <c r="J46" s="48" t="n">
         <v>714959.81897</v>
@@ -2579,13 +2690,18 @@
         <v>2100272.62828</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>911721.17501</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>911721.1750099999</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>1691231.976</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>440223.56985</v>
@@ -2597,34 +2713,39 @@
         <v>820627.77997</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>856879.28789</v>
+        <v>856879.2878900002</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>986664.5808700002</v>
+        <v>986955.3290700001</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>1443569.94711</v>
+        <v>1446540.7004</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>1133609.82165</v>
+        <v>1267825.33871</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>1106230.04804</v>
+        <v>1105994.06884</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>1450663.00093</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>2107267.51971</v>
+        <v>2105676.94128</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>2329596.54732</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>2308133.39831</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>2904305.055</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>118548.18174</v>
@@ -2639,31 +2760,36 @@
         <v>122773.11654</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>300357.89984</v>
+        <v>300361.6127</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>317349.64698</v>
+        <v>317977.72402</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>276267.84775</v>
+        <v>278858.48994</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>349578.97241</v>
+        <v>350355.74075</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>561876.4816599999</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>341844.02807</v>
+        <v>342513.1247100001</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>491925.3347000001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>499272.7785</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>639844.151</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>4648.28154</v>
@@ -2678,16 +2804,16 @@
         <v>5984.79449</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>5592.207579999999</v>
+        <v>5592.20758</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>2521.31055</v>
+        <v>2525.5308</v>
       </c>
       <c r="I49" s="48" t="n">
         <v>4664.94687</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>6691.06332</v>
+        <v>6707.95968</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>1908.50203</v>
@@ -2698,11 +2824,16 @@
       <c r="M49" s="48" t="n">
         <v>3461.51031</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>7895.324</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>113899.9002</v>
@@ -2717,31 +2848,36 @@
         <v>116788.32205</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>294765.69226</v>
+        <v>294769.40512</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>314828.3364300001</v>
+        <v>315452.19322</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>271602.90088</v>
+        <v>274193.54307</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>342887.90909</v>
+        <v>343647.78107</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>559967.97963</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>340631.2867999999</v>
+        <v>341300.38344</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>488463.82439</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>495811.26819</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>631948.827</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>138456.67876</v>
@@ -2756,31 +2892,36 @@
         <v>136685.17892</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>176557.72109</v>
+        <v>176659.68883</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>294941.84484</v>
+        <v>294955.10301</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>141734.96854</v>
+        <v>174114.82653</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>448048.81852</v>
+        <v>448265.4194199999</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>325987.7943900001</v>
+        <v>325987.7943899999</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>731773.54261</v>
+        <v>733287.22788</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>354683.0626600001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>365484.20875</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>514802.171</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>49623.71212</v>
@@ -2795,13 +2936,13 @@
         <v>36985.93079999999</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>83204.30753999999</v>
+        <v>83204.30754000001</v>
       </c>
       <c r="H52" s="48" t="n">
         <v>48606.21167</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>31182.72938</v>
+        <v>49086.19819</v>
       </c>
       <c r="J52" s="48" t="n">
         <v>54940.12463000001</v>
@@ -2810,31 +2951,36 @@
         <v>60014.00461</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>114453.22235</v>
+        <v>114455.151</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>126689.50256</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>127443.43815</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>263189.615</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>17170.11167</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>8053.893880000001</v>
+        <v>8053.89388</v>
       </c>
       <c r="E53" s="48" t="n">
         <v>6977.22367</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>38724.84431999999</v>
+        <v>38724.84432000001</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>5579.874599999999</v>
+        <v>5681.84234</v>
       </c>
       <c r="H53" s="48" t="n">
         <v>10154.43004</v>
@@ -2849,16 +2995,21 @@
         <v>16163.90668</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>16532.35406</v>
+        <v>16558.3711</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>26358.56508</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>26440.44181</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>24657.174</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>71662.85497</v>
@@ -2876,34 +3027,39 @@
         <v>87773.53895</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>236181.20313</v>
+        <v>236194.4613</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>97037.38710000001</v>
+        <v>111513.77628</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>381985.22297</v>
+        <v>382201.82387</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>249809.8831</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>600787.9662</v>
+        <v>602273.70578</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>201634.99502</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>211600.32879</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>226955.382</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>420315.07283</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>514447.91207</v>
+        <v>514447.9120700001</v>
       </c>
       <c r="E55" s="47" t="n">
         <v>760157.5244</v>
@@ -2912,34 +3068,39 @@
         <v>842967.22551</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>1110464.75962</v>
+        <v>1110657.25294</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>1465977.74925</v>
+        <v>1469563.32141</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>1268142.70086</v>
+        <v>1372569.00212</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>1007760.20193</v>
+        <v>1008084.39017</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>1686551.6882</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>1717338.00517</v>
+        <v>1714902.83811</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>2466838.81936</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>2441921.96806</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>3029347.035</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>76734.75119999998</v>
+        <v>76734.7512</v>
       </c>
       <c r="D56" s="47" t="n">
         <v>98637.37917</v>
@@ -2951,31 +3112,36 @@
         <v>138297.12017</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>177460.57645</v>
+        <v>177519.6618</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>210182.64547</v>
+        <v>211038.62135</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>204534.28927</v>
+        <v>209474.78542</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>184080.10372</v>
+        <v>184099.95976</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>228196.28328</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>318739.3692000001</v>
+        <v>319148.93074</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>286313.80575</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>288000.87346</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>441502.899</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>343580.32163</v>
@@ -2984,34 +3150,37 @@
         <v>415810.5329</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>613926.1223500001</v>
+        <v>613926.1223500002</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>704670.1053399999</v>
+        <v>704670.10534</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>933004.18317</v>
+        <v>933137.5911399999</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>1255795.10378</v>
+        <v>1258524.70006</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>1063608.41159</v>
+        <v>1163094.2167</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>823680.0982100001</v>
+        <v>823984.4304099999</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>1458355.40492</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>1398598.63597</v>
+        <v>1395753.90737</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>2180525.01361</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>2153921.0946</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>2587844.136</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>2403</v>
@@ -3044,28 +3216,31 @@
         <v>2155</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>1970</v>
+        <v>1972</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>1780</v>
+        <v>1783</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>1717</v>
+        <v>1726</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>1686</v>
+        <v>1698</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>1705</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>1614</v>
+        <v>1762</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>1593</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>1776</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>